--- a/updates/excels/start_solutions.xlsx
+++ b/updates/excels/start_solutions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\talktob\plugins\waka\wcms\updates\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F62314-FAF0-49DB-B5C3-5723E408C1C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F40F24DC-BB36-464E-9834-52561A5A90A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{39C5C7BC-0F20-4ABA-B1CF-FB175B7B3F19}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>name</t>
   </si>
@@ -204,6 +204,9 @@
   </si>
   <si>
     <t>Controlez les données de l'application et de vos autres outis IT</t>
+  </si>
+  <si>
+    <t>content</t>
   </si>
 </sst>
 </file>
@@ -372,13 +375,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{316CB12F-A1F8-4323-8D5B-247DC6B6657A}" name="Tableau1" displayName="Tableau1" ref="A1:D12" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A1:D12" xr:uid="{6C318A8B-944D-445D-95E0-9D1444D32BE3}"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{316CB12F-A1F8-4323-8D5B-247DC6B6657A}" name="Tableau1" displayName="Tableau1" ref="A1:E12" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A1:E12" xr:uid="{6C318A8B-944D-445D-95E0-9D1444D32BE3}"/>
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{496A52CA-7716-43D5-96DC-35FB83C90D97}" name="name"/>
     <tableColumn id="9" xr3:uid="{8160935D-CBDD-40AA-AE18-F6548F3E10C6}" name="slug" dataDxfId="2"/>
     <tableColumn id="10" xr3:uid="{699D5B69-8DE2-4363-98DA-F9A3E9BAFAA7}" name="main_image" dataDxfId="1"/>
     <tableColumn id="5" xr3:uid="{CC45F14A-9DD9-44AC-8929-C4FC9FD94C2E}" name="description" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{11F31CF9-B45F-4811-99A5-17CB58E244C6}" name="content" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -681,10 +685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF79DB02-0089-4E5A-9F1C-E614A24F3FCC}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -694,7 +698,7 @@
     <col min="4" max="4" width="83.73046875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -707,8 +711,11 @@
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -722,7 +729,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="70.900000000000006" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" ht="70.900000000000006" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -736,7 +743,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="40.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" ht="40.5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -750,7 +757,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="30.4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" ht="30.4" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -764,7 +771,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="60.75" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" ht="60.75" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -778,7 +785,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="40.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" ht="40.5" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -792,7 +799,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="50.65" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" ht="50.65" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -806,7 +813,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="60.75" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" ht="60.75" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -820,7 +827,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="111.4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" ht="111.4" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
@@ -834,7 +841,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="40.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" ht="40.5" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
@@ -848,7 +855,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
         <v>30</v>
       </c>
